--- a/ingredients.xlsx
+++ b/ingredients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/cktlgg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AA5E9F-46E1-D94D-8288-B0472F0E3021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1430FF25-5074-1644-995E-C03E3E612042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="5160" windowWidth="27640" windowHeight="16680" xr2:uid="{04AE5593-E317-064F-9108-BAA9D0380D35}"/>
+    <workbookView xWindow="6880" yWindow="5140" windowWidth="27640" windowHeight="16680" xr2:uid="{04AE5593-E317-064F-9108-BAA9D0380D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="103">
   <si>
     <t>재료명</t>
   </si>
@@ -62,99 +62,36 @@
     <t>리큐르</t>
   </si>
   <si>
-    <t>드라이 진</t>
-  </si>
-  <si>
-    <t>깔끔하고 향긋한 주정 기반 증류주</t>
-  </si>
-  <si>
     <t>불순물이 없는 깨끗하고 강한 증류주</t>
   </si>
   <si>
-    <t>화이트 럼</t>
-  </si>
-  <si>
     <t>사탕수수로 만든 투명한 증류주</t>
   </si>
   <si>
-    <t>다크 럼</t>
-  </si>
-  <si>
-    <t>오크통에서 숙성시킨 진한 색의 럼</t>
-  </si>
-  <si>
-    <t>바카디 럼</t>
-  </si>
-  <si>
-    <t>바카디 사의 특정 화이트 럼</t>
-  </si>
-  <si>
     <t>데킬라</t>
   </si>
   <si>
     <t>멕시코 아가베로 만든 증류주</t>
   </si>
   <si>
-    <t>버번 위스키</t>
-  </si>
-  <si>
     <t>위스키</t>
   </si>
   <si>
     <t>옥수수를 주원료로 한 미국 위스키</t>
   </si>
   <si>
-    <t>스카치 위스키</t>
-  </si>
-  <si>
-    <t>보리를 주원료로 한 스코틀랜드 위스키</t>
-  </si>
-  <si>
     <t>브랜디</t>
   </si>
   <si>
     <t>포도를 증류하여 만든 숙성주</t>
   </si>
   <si>
-    <t>애플 브랜디</t>
-  </si>
-  <si>
-    <t>사과를 증류하여 만든 브랜디 (칼바도스 등)</t>
-  </si>
-  <si>
-    <t>애프리콧 브랜디</t>
-  </si>
-  <si>
-    <t>살구 향이 가미된 달콤한 리큐르</t>
-  </si>
-  <si>
-    <t>청하</t>
-  </si>
-  <si>
     <t>전통주</t>
   </si>
   <si>
     <t>맑고 깨끗한 한국의 청주</t>
   </si>
   <si>
-    <t>문배주</t>
-  </si>
-  <si>
-    <t>문배나무 향이 나는 한국 전통 증류주</t>
-  </si>
-  <si>
-    <t>인삼주</t>
-  </si>
-  <si>
-    <t>인삼을 침출하거나 증류한 술</t>
-  </si>
-  <si>
-    <t>감홍로</t>
-  </si>
-  <si>
-    <t>육계와 정향이 들어간 한국 전통 명주</t>
-  </si>
-  <si>
     <t>트리플 섹</t>
   </si>
   <si>
@@ -369,6 +306,45 @@
   </si>
   <si>
     <t>앱솔루트</t>
+  </si>
+  <si>
+    <t>청주</t>
+  </si>
+  <si>
+    <t>photo/1008.png</t>
+  </si>
+  <si>
+    <t>깔루아</t>
+  </si>
+  <si>
+    <t>photo/kahlua.png</t>
+  </si>
+  <si>
+    <t>서브카테고리</t>
+  </si>
+  <si>
+    <t>즙</t>
+  </si>
+  <si>
+    <t>주스</t>
+  </si>
+  <si>
+    <t>탄산</t>
+  </si>
+  <si>
+    <t>조미료</t>
+  </si>
+  <si>
+    <t>photo/lemonw.png</t>
+  </si>
+  <si>
+    <t>스미노프</t>
+  </si>
+  <si>
+    <t>그래이구스</t>
+  </si>
+  <si>
+    <t>커클랜드 아메리칸 보드카</t>
   </si>
 </sst>
 </file>
@@ -755,21 +731,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B99DE-07C9-554B-8320-40C41C02255C}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,14 +753,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,579 +773,675 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="E44" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="B48" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="2" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>108</v>
+      <c r="D55" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
